--- a/Code/Results/Cases/Case_4_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_142/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.49110788172333</v>
+        <v>17.27977745435881</v>
       </c>
       <c r="C2">
-        <v>34.69235810180544</v>
+        <v>20.01513248294323</v>
       </c>
       <c r="D2">
-        <v>7.533950413710041</v>
+        <v>5.999011257883991</v>
       </c>
       <c r="E2">
-        <v>31.26793371868966</v>
+        <v>16.3599649701172</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.977381254105877</v>
+        <v>3.658709265992564</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>65.30564721766538</v>
+        <v>43.39018794853718</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.12733945645304</v>
+        <v>16.80845620542125</v>
       </c>
       <c r="C3">
-        <v>31.83310856750466</v>
+        <v>19.03095298171618</v>
       </c>
       <c r="D3">
-        <v>6.929879969979911</v>
+        <v>5.886341013170409</v>
       </c>
       <c r="E3">
-        <v>28.61409954162589</v>
+        <v>15.42795899903451</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.005010262987851</v>
+        <v>3.665774595863357</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.66858548953943</v>
+        <v>41.74705059999795</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.65778237057217</v>
+        <v>16.52495127934529</v>
       </c>
       <c r="C4">
-        <v>30.04690896404339</v>
+        <v>18.40871444625651</v>
       </c>
       <c r="D4">
-        <v>6.550383130056711</v>
+        <v>5.818415080341074</v>
       </c>
       <c r="E4">
-        <v>26.96702441667777</v>
+        <v>14.83367852988898</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.021625406065374</v>
+        <v>3.670307741196599</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.78319643102579</v>
+        <v>40.70907039379494</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.05217082505229</v>
+        <v>16.41112971125974</v>
       </c>
       <c r="C5">
-        <v>29.30901627918721</v>
+        <v>18.15101172736924</v>
       </c>
       <c r="D5">
-        <v>6.393127902333862</v>
+        <v>5.79108615436758</v>
       </c>
       <c r="E5">
-        <v>26.28863771147171</v>
+        <v>14.58623719477642</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.028346721538181</v>
+        <v>3.672204432804039</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.59496614650666</v>
+        <v>40.27924060416047</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.95114713161434</v>
+        <v>16.39233964606281</v>
       </c>
       <c r="C6">
-        <v>29.18582848559864</v>
+        <v>18.1079827656509</v>
       </c>
       <c r="D6">
-        <v>6.366847060129905</v>
+        <v>5.786570477996603</v>
       </c>
       <c r="E6">
-        <v>26.17548904729138</v>
+        <v>14.54484060408023</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.029460760722052</v>
+        <v>3.672522371069423</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.39684625303231</v>
+        <v>40.20746904849166</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.64964474922105</v>
+        <v>16.52340901924836</v>
       </c>
       <c r="C7">
-        <v>30.03700063211754</v>
+        <v>18.40525518096005</v>
       </c>
       <c r="D7">
-        <v>6.54827340776846</v>
+        <v>5.818045042573145</v>
       </c>
       <c r="E7">
-        <v>26.95790775335936</v>
+        <v>14.83036237874036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.021716208109006</v>
+        <v>3.670333120152682</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.76722486378749</v>
+        <v>40.70330061323982</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.67836652445558</v>
+        <v>17.11617998988317</v>
       </c>
       <c r="C8">
-        <v>33.71126134836746</v>
+        <v>19.67972215971064</v>
       </c>
       <c r="D8">
-        <v>7.327148730424382</v>
+        <v>5.959924059084231</v>
       </c>
       <c r="E8">
-        <v>30.35465492336938</v>
+        <v>16.04332735927769</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.987006343123817</v>
+        <v>3.661105138657576</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.71273197094646</v>
+        <v>42.82993721464702</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.61172004622786</v>
+        <v>18.31549519984824</v>
       </c>
       <c r="C9">
-        <v>40.82091016400127</v>
+        <v>22.02265412150252</v>
       </c>
       <c r="D9">
-        <v>8.814042554639538</v>
+        <v>6.246502329985754</v>
       </c>
       <c r="E9">
-        <v>37.05307958979265</v>
+        <v>18.28843694282577</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.91374608582344</v>
+        <v>3.644539644950052</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>75.26072984619438</v>
+        <v>46.75142658890895</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.27782086635914</v>
+        <v>19.2065254863081</v>
       </c>
       <c r="C10">
-        <v>46.31808921058249</v>
+        <v>23.63351757161559</v>
       </c>
       <c r="D10">
-        <v>9.942735939384301</v>
+        <v>6.460026389903472</v>
       </c>
       <c r="E10">
-        <v>42.40389621325625</v>
+        <v>19.95906145286519</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.851322735966927</v>
+        <v>3.633278346149001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>84.2227359561726</v>
+        <v>49.46012747453848</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>39.60932586664089</v>
+        <v>19.6115856878747</v>
       </c>
       <c r="C11">
-        <v>49.03084853643256</v>
+        <v>24.33997384599312</v>
       </c>
       <c r="D11">
-        <v>10.49141717460628</v>
+        <v>6.557376378256579</v>
       </c>
       <c r="E11">
-        <v>45.12422393322379</v>
+        <v>20.67905300416601</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.818570351971749</v>
+        <v>3.628347535138037</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>88.70664346325916</v>
+        <v>50.65146846519302</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.54738202419176</v>
+        <v>19.76474781476391</v>
       </c>
       <c r="C12">
-        <v>50.11563048520746</v>
+        <v>24.60355145842846</v>
       </c>
       <c r="D12">
-        <v>10.70901979679251</v>
+        <v>6.594236952964063</v>
       </c>
       <c r="E12">
-        <v>46.23072622280808</v>
+        <v>20.94599803774185</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.805101479744027</v>
+        <v>3.626507553955342</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>90.48466465063851</v>
+        <v>51.09648501369985</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40.34224778994347</v>
+        <v>19.73177443162579</v>
       </c>
       <c r="C13">
-        <v>49.87874140658064</v>
+        <v>24.54696278920632</v>
       </c>
       <c r="D13">
-        <v>10.66159510781887</v>
+        <v>6.586299074406537</v>
       </c>
       <c r="E13">
-        <v>45.98809093147697</v>
+        <v>20.8887593715783</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.808061106113242</v>
+        <v>3.626902623121028</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>90.09718499910225</v>
+        <v>51.00091833835749</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>39.68517044792608</v>
+        <v>19.62419195582505</v>
       </c>
       <c r="C14">
-        <v>49.11869999645491</v>
+        <v>24.36173832431566</v>
       </c>
       <c r="D14">
-        <v>10.50908027361803</v>
+        <v>6.560409189407872</v>
       </c>
       <c r="E14">
-        <v>45.21340622856559</v>
+        <v>20.70112868693547</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.817487555197141</v>
+        <v>3.628195615776998</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>88.85097783191669</v>
+        <v>50.68820412874621</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>39.29098701063517</v>
+        <v>19.55825997422021</v>
       </c>
       <c r="C15">
-        <v>48.66183951014415</v>
+        <v>24.24776551538222</v>
       </c>
       <c r="D15">
-        <v>10.41714986839692</v>
+        <v>6.54454938946932</v>
       </c>
       <c r="E15">
-        <v>44.75041646900175</v>
+        <v>20.58545862389973</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.823103216086301</v>
+        <v>3.628991142619525</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>88.09975158269341</v>
+        <v>50.49585426078749</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.1313774972626</v>
+        <v>19.18003208965117</v>
       </c>
       <c r="C16">
-        <v>46.14692274397585</v>
+        <v>23.5868051316743</v>
       </c>
       <c r="D16">
-        <v>9.90791520222316</v>
+        <v>6.453665679916858</v>
       </c>
       <c r="E16">
-        <v>42.23426478946797</v>
+        <v>19.91120795610494</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.853345375272719</v>
+        <v>3.633604415881942</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>83.93818230924079</v>
+        <v>49.38142673378726</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.87260771151124</v>
+        <v>18.94779421954244</v>
       </c>
       <c r="C17">
-        <v>44.67193412082246</v>
+        <v>23.17446250753899</v>
       </c>
       <c r="D17">
-        <v>9.606941209901866</v>
+        <v>6.39794165179753</v>
       </c>
       <c r="E17">
-        <v>40.78133377519832</v>
+        <v>19.48737127744995</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.870562107677558</v>
+        <v>3.63648340512393</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>81.48337963905892</v>
+        <v>48.68711171874063</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.16615330982439</v>
+        <v>18.81420153768831</v>
       </c>
       <c r="C18">
-        <v>43.84125737223816</v>
+        <v>22.9348225173079</v>
       </c>
       <c r="D18">
-        <v>9.436747760115317</v>
+        <v>6.365913070579499</v>
       </c>
       <c r="E18">
-        <v>39.96962180614322</v>
+        <v>19.23982517355283</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.880091560290027</v>
+        <v>3.63815742092728</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>80.14523883740291</v>
+        <v>48.28392615208452</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.92948397242125</v>
+        <v>18.76897258810743</v>
       </c>
       <c r="C19">
-        <v>43.56251645318088</v>
+        <v>22.85326529323308</v>
       </c>
       <c r="D19">
-        <v>9.379530537377349</v>
+        <v>6.355073681696302</v>
       </c>
       <c r="E19">
-        <v>39.69823425871146</v>
+        <v>19.15536192151856</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.883262580116283</v>
+        <v>3.638727334243913</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>79.69563576294713</v>
+        <v>48.14676396384805</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.00466468918128</v>
+        <v>18.97251934791591</v>
       </c>
       <c r="C20">
-        <v>44.82698418444605</v>
+        <v>23.21861408593599</v>
       </c>
       <c r="D20">
-        <v>9.638654604428815</v>
+        <v>6.403871508915744</v>
       </c>
       <c r="E20">
-        <v>40.93334870765906</v>
+        <v>19.53287887186566</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.868770150700602</v>
+        <v>3.636175061679776</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>81.73800462642414</v>
+        <v>48.761421408968</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.8763606773131</v>
+        <v>19.65579905944732</v>
       </c>
       <c r="C21">
-        <v>49.34004549361565</v>
+        <v>24.41625131778789</v>
       </c>
       <c r="D21">
-        <v>10.55355206917472</v>
+        <v>6.56801404840949</v>
       </c>
       <c r="E21">
-        <v>45.43843222247169</v>
+        <v>20.7563946713445</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.814753180932436</v>
+        <v>3.627815097252057</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>89.2143730822569</v>
+        <v>50.78022368024874</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>42.76302524424793</v>
+        <v>20.10097287074603</v>
       </c>
       <c r="C22">
-        <v>52.66231047044102</v>
+        <v>25.17594710745897</v>
       </c>
       <c r="D22">
-        <v>11.2152677865934</v>
+        <v>6.675253800925452</v>
       </c>
       <c r="E22">
-        <v>48.87851181192755</v>
+        <v>21.52283143072546</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.772626755046117</v>
+        <v>3.622509786031667</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>94.61967278186255</v>
+        <v>52.06387700725943</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.17373533418279</v>
+        <v>19.86355976320392</v>
       </c>
       <c r="C23">
-        <v>50.83778958838392</v>
+        <v>24.7726342471374</v>
       </c>
       <c r="D23">
-        <v>10.85325724962774</v>
+        <v>6.618032411755613</v>
       </c>
       <c r="E23">
-        <v>46.9740423121463</v>
+        <v>21.11679120042931</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.796015271020363</v>
+        <v>3.625326970503754</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>91.66303903058329</v>
+        <v>51.38210925785415</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.9449095924217</v>
+        <v>18.96134133992843</v>
       </c>
       <c r="C24">
-        <v>44.75683376335643</v>
+        <v>23.19866117739816</v>
       </c>
       <c r="D24">
-        <v>9.624308422129147</v>
+        <v>6.401190593222051</v>
       </c>
       <c r="E24">
-        <v>40.86455137028116</v>
+        <v>19.51231696738881</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.869581416052905</v>
+        <v>3.636314405017978</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>81.6207933245767</v>
+        <v>48.72783848384437</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.98325235524808</v>
+        <v>17.98843904134237</v>
       </c>
       <c r="C25">
-        <v>38.88221243137762</v>
+        <v>21.4073012330288</v>
       </c>
       <c r="D25">
-        <v>8.411372881007113</v>
+        <v>6.16830193886785</v>
       </c>
       <c r="E25">
-        <v>35.20604843692722</v>
+        <v>17.66496869973193</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.93454057363632</v>
+        <v>3.648859621270147</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>72.11446578305291</v>
+        <v>45.71951703758512</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_142/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.27977745435881</v>
+        <v>27.49110788172302</v>
       </c>
       <c r="C2">
-        <v>20.01513248294323</v>
+        <v>34.6923581018051</v>
       </c>
       <c r="D2">
-        <v>5.999011257883991</v>
+        <v>7.533950413710016</v>
       </c>
       <c r="E2">
-        <v>16.3599649701172</v>
+        <v>31.26793371868962</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.658709265992564</v>
+        <v>1.977381254105744</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>43.39018794853718</v>
+        <v>65.30564721766507</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.80845620542125</v>
+        <v>25.12733945645305</v>
       </c>
       <c r="C3">
-        <v>19.03095298171618</v>
+        <v>31.8331085675044</v>
       </c>
       <c r="D3">
-        <v>5.886341013170409</v>
+        <v>6.929879969979938</v>
       </c>
       <c r="E3">
-        <v>15.42795899903451</v>
+        <v>28.61409954162585</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.665774595863357</v>
+        <v>2.005010262987878</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>41.74705059999795</v>
+        <v>60.66858548953947</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.52495127934529</v>
+        <v>23.65778237057225</v>
       </c>
       <c r="C4">
-        <v>18.40871444625651</v>
+        <v>30.04690896404353</v>
       </c>
       <c r="D4">
-        <v>5.818415080341074</v>
+        <v>6.550383130056766</v>
       </c>
       <c r="E4">
-        <v>14.83367852988898</v>
+        <v>26.96702441667784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.670307741196599</v>
+        <v>2.021625406065236</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40.70907039379494</v>
+        <v>57.78319643102606</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.41112971125974</v>
+        <v>23.05217082505221</v>
       </c>
       <c r="C5">
-        <v>18.15101172736924</v>
+        <v>29.30901627918696</v>
       </c>
       <c r="D5">
-        <v>5.79108615436758</v>
+        <v>6.393127902333941</v>
       </c>
       <c r="E5">
-        <v>14.58623719477642</v>
+        <v>26.28863771147176</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.672204432804039</v>
+        <v>2.028346721538187</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>40.27924060416047</v>
+        <v>56.59496614650613</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.39233964606281</v>
+        <v>22.95114713161455</v>
       </c>
       <c r="C6">
-        <v>18.1079827656509</v>
+        <v>29.18582848559876</v>
       </c>
       <c r="D6">
-        <v>5.786570477996603</v>
+        <v>6.36684706012994</v>
       </c>
       <c r="E6">
-        <v>14.54484060408023</v>
+        <v>26.17548904729147</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.672522371069423</v>
+        <v>2.0294607607219</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>40.20746904849166</v>
+        <v>56.39684625303292</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.52340901924836</v>
+        <v>23.64964474922129</v>
       </c>
       <c r="C7">
-        <v>18.40525518096005</v>
+        <v>30.03700063211766</v>
       </c>
       <c r="D7">
-        <v>5.818045042573145</v>
+        <v>6.548273407768678</v>
       </c>
       <c r="E7">
-        <v>14.83036237874036</v>
+        <v>26.95790775335945</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.670333120152682</v>
+        <v>2.021716208109002</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>40.70330061323982</v>
+        <v>57.7672248637878</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.11617998988317</v>
+        <v>26.6783665244553</v>
       </c>
       <c r="C8">
-        <v>19.67972215971064</v>
+        <v>33.71126134836725</v>
       </c>
       <c r="D8">
-        <v>5.959924059084231</v>
+        <v>7.327148730424264</v>
       </c>
       <c r="E8">
-        <v>16.04332735927769</v>
+        <v>30.35465492336914</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.661105138657576</v>
+        <v>1.987006343123912</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>42.82993721464702</v>
+        <v>63.71273197094601</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.31549519984824</v>
+        <v>32.61172004622842</v>
       </c>
       <c r="C9">
-        <v>22.02265412150252</v>
+        <v>40.8209101640017</v>
       </c>
       <c r="D9">
-        <v>6.246502329985754</v>
+        <v>8.814042554639675</v>
       </c>
       <c r="E9">
-        <v>18.28843694282577</v>
+        <v>37.05307958979292</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.644539644950052</v>
+        <v>1.913746085823577</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.75142658890895</v>
+        <v>75.260729846196</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.2065254863081</v>
+        <v>37.27782086635941</v>
       </c>
       <c r="C10">
-        <v>23.63351757161559</v>
+        <v>46.31808921058264</v>
       </c>
       <c r="D10">
-        <v>6.460026389903472</v>
+        <v>9.942735939384427</v>
       </c>
       <c r="E10">
-        <v>19.95906145286519</v>
+        <v>42.40389621325642</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.633278346149001</v>
+        <v>1.851322735966835</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>49.46012747453848</v>
+        <v>84.22273595617371</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.6115856878747</v>
+        <v>39.60932586664079</v>
       </c>
       <c r="C11">
-        <v>24.33997384599312</v>
+        <v>49.03084853643255</v>
       </c>
       <c r="D11">
-        <v>6.557376378256579</v>
+        <v>10.49141717460626</v>
       </c>
       <c r="E11">
-        <v>20.67905300416601</v>
+        <v>45.12422393322382</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.628347535138037</v>
+        <v>1.818570351971749</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>50.65146846519302</v>
+        <v>88.70664346325889</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.76474781476391</v>
+        <v>40.54738202419149</v>
       </c>
       <c r="C12">
-        <v>24.60355145842846</v>
+        <v>50.11563048520705</v>
       </c>
       <c r="D12">
-        <v>6.594236952964063</v>
+        <v>10.70901979679238</v>
       </c>
       <c r="E12">
-        <v>20.94599803774185</v>
+        <v>46.23072622280798</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.626507553955342</v>
+        <v>1.805101479743953</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>51.09648501369985</v>
+        <v>90.48466465063746</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.73177443162579</v>
+        <v>40.34224778994339</v>
       </c>
       <c r="C13">
-        <v>24.54696278920632</v>
+        <v>49.87874140658057</v>
       </c>
       <c r="D13">
-        <v>6.586299074406537</v>
+        <v>10.6615951078188</v>
       </c>
       <c r="E13">
-        <v>20.8887593715783</v>
+        <v>45.98809093147698</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.626902623121028</v>
+        <v>1.808061106113495</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>51.00091833835749</v>
+        <v>90.09718499910278</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.62419195582505</v>
+        <v>39.6851704479266</v>
       </c>
       <c r="C14">
-        <v>24.36173832431566</v>
+        <v>49.1186999964556</v>
       </c>
       <c r="D14">
-        <v>6.560409189407872</v>
+        <v>10.50908027361814</v>
       </c>
       <c r="E14">
-        <v>20.70112868693547</v>
+        <v>45.21340622856592</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.628195615776998</v>
+        <v>1.817487555196962</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>50.68820412874621</v>
+        <v>88.85097783191873</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.55825997422021</v>
+        <v>39.29098701063525</v>
       </c>
       <c r="C15">
-        <v>24.24776551538222</v>
+        <v>48.66183951014438</v>
       </c>
       <c r="D15">
-        <v>6.54454938946932</v>
+        <v>10.41714986839696</v>
       </c>
       <c r="E15">
-        <v>20.58545862389973</v>
+        <v>44.7504164690019</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.628991142619525</v>
+        <v>1.823103216086332</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>50.49585426078749</v>
+        <v>88.09975158269418</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.18003208965117</v>
+        <v>37.13137749726237</v>
       </c>
       <c r="C16">
-        <v>23.5868051316743</v>
+        <v>46.14692274397555</v>
       </c>
       <c r="D16">
-        <v>6.453665679916858</v>
+        <v>9.907915202223146</v>
       </c>
       <c r="E16">
-        <v>19.91120795610494</v>
+        <v>42.23426478946779</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.633604415881942</v>
+        <v>1.853345375272584</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>49.38142673378726</v>
+        <v>83.9381823092406</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.94779421954244</v>
+        <v>35.87260771151162</v>
       </c>
       <c r="C17">
-        <v>23.17446250753899</v>
+        <v>44.67193412082305</v>
       </c>
       <c r="D17">
-        <v>6.39794165179753</v>
+        <v>9.606941209901915</v>
       </c>
       <c r="E17">
-        <v>19.48737127744995</v>
+        <v>40.78133377519841</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.63648340512393</v>
+        <v>1.87056210767768</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>48.68711171874063</v>
+        <v>81.48337963905975</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.81420153768831</v>
+        <v>35.16615330982456</v>
       </c>
       <c r="C18">
-        <v>22.9348225173079</v>
+        <v>43.84125737223831</v>
       </c>
       <c r="D18">
-        <v>6.365913070579499</v>
+        <v>9.436747760115253</v>
       </c>
       <c r="E18">
-        <v>19.23982517355283</v>
+        <v>39.96962180614333</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.63815742092728</v>
+        <v>1.880091560289985</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>48.28392615208452</v>
+        <v>80.14523883740313</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.76897258810743</v>
+        <v>34.92948397242112</v>
       </c>
       <c r="C19">
-        <v>22.85326529323308</v>
+        <v>43.56251645318095</v>
       </c>
       <c r="D19">
-        <v>6.355073681696302</v>
+        <v>9.37953053737724</v>
       </c>
       <c r="E19">
-        <v>19.15536192151856</v>
+        <v>39.69823425871155</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.638727334243913</v>
+        <v>1.883262580116391</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>48.14676396384805</v>
+        <v>79.69563576294692</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.97251934791591</v>
+        <v>36.00466468918156</v>
       </c>
       <c r="C20">
-        <v>23.21861408593599</v>
+        <v>44.82698418444628</v>
       </c>
       <c r="D20">
-        <v>6.403871508915744</v>
+        <v>9.638654604428968</v>
       </c>
       <c r="E20">
-        <v>19.53287887186566</v>
+        <v>40.93334870765929</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.636175061679776</v>
+        <v>1.868770150700359</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>48.761421408968</v>
+        <v>81.73800462642468</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.65579905944732</v>
+        <v>39.87636067731359</v>
       </c>
       <c r="C21">
-        <v>24.41625131778789</v>
+        <v>49.34004549361597</v>
       </c>
       <c r="D21">
-        <v>6.56801404840949</v>
+        <v>10.55355206917461</v>
       </c>
       <c r="E21">
-        <v>20.7563946713445</v>
+        <v>45.43843222247196</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.627815097252057</v>
+        <v>1.814753180932495</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>50.78022368024874</v>
+        <v>89.2143730822586</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.10097287074603</v>
+        <v>42.76302524424813</v>
       </c>
       <c r="C22">
-        <v>25.17594710745897</v>
+        <v>52.6623104704414</v>
       </c>
       <c r="D22">
-        <v>6.675253800925452</v>
+        <v>11.21526778659348</v>
       </c>
       <c r="E22">
-        <v>21.52283143072546</v>
+        <v>48.87851181192786</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.622509786031667</v>
+        <v>1.7726267550461</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>52.06387700725943</v>
+        <v>94.61967278186407</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.86355976320392</v>
+        <v>41.17373533418272</v>
       </c>
       <c r="C23">
-        <v>24.7726342471374</v>
+        <v>50.83778958838373</v>
       </c>
       <c r="D23">
-        <v>6.618032411755613</v>
+        <v>10.85325724962775</v>
       </c>
       <c r="E23">
-        <v>21.11679120042931</v>
+        <v>46.97404231214632</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.625326970503754</v>
+        <v>1.796015271020288</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>51.38210925785415</v>
+        <v>91.66303903058254</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.96134133992843</v>
+        <v>35.94490959242196</v>
       </c>
       <c r="C24">
-        <v>23.19866117739816</v>
+        <v>44.7568337633566</v>
       </c>
       <c r="D24">
-        <v>6.401190593222051</v>
+        <v>9.62430842212925</v>
       </c>
       <c r="E24">
-        <v>19.51231696738881</v>
+        <v>40.86455137028157</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.636314405017978</v>
+        <v>1.869581416053028</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>48.72783848384437</v>
+        <v>81.62079332457796</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.98843904134237</v>
+        <v>30.98325235524782</v>
       </c>
       <c r="C25">
-        <v>21.4073012330288</v>
+        <v>38.88221243137711</v>
       </c>
       <c r="D25">
-        <v>6.16830193886785</v>
+        <v>8.411372881007029</v>
       </c>
       <c r="E25">
-        <v>17.66496869973193</v>
+        <v>35.20604843692722</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.648859621270147</v>
+        <v>1.934540573636607</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45.71951703758512</v>
+        <v>72.11446578305231</v>
       </c>
       <c r="J25">
         <v>0</v>
